--- a/Excels/Taller 3 Integrales.xlsx
+++ b/Excels/Taller 3 Integrales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Computador\Documentos\Universidad\VIII Semestre\Métodos Númericos\Talleres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe's\Documents\GitHub\MetodosNumericos\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -441,7 +440,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,10 +534,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -563,12 +562,12 @@
         <v>-0.24894984329517472</v>
       </c>
       <c r="F13">
+        <f>((C13+D13)*$B$9)/2</f>
+        <v>-0.25149003694099437</v>
+      </c>
+      <c r="G13">
         <f>IF((ABS(C13))&lt;=(ABS(D13)),(D13*$B$9),(C13*$B$9))</f>
         <v>-0.25403023058681401</v>
-      </c>
-      <c r="G13">
-        <f>((C13+D13)*$B$9)/2</f>
-        <v>-0.25149003694099437</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -593,12 +592,12 @@
         <v>-0.24020957578842927</v>
       </c>
       <c r="F14">
+        <f>((C14+D14)*$B$9)/2</f>
+        <v>-0.244579709541802</v>
+      </c>
+      <c r="G14">
         <f>IF((ABS(C14))&lt;=(ABS(D14)),(D14*$B$9),(C14*$B$9))</f>
         <v>-0.24894984329517472</v>
-      </c>
-      <c r="G14">
-        <f>((C14+D14)*$B$9)/2</f>
-        <v>-0.244579709541802</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -623,12 +622,12 @@
         <v>-0.22823328586101216</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F22" si="5">IF((ABS(C15))&lt;=(ABS(D15)),(D15*$B$9),(C15*$B$9))</f>
+        <f>((C15+D15)*$B$9)/2</f>
+        <v>-0.23422143082472072</v>
+      </c>
+      <c r="G15">
+        <f>IF((ABS(C15))&lt;=(ABS(D15)),(D15*$B$9),(C15*$B$9))</f>
         <v>-0.24020957578842927</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15:G22" si="6">((C15+D15)*$B$9)/2</f>
-        <v>-0.23422143082472072</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,12 +652,12 @@
         <v>-0.21358968236779352</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f>((C16+D16)*$B$9)/2</f>
+        <v>-0.22091148411440284</v>
+      </c>
+      <c r="G16">
+        <f>IF((ABS(C16))&lt;=(ABS(D16)),(D16*$B$9),(C16*$B$9))</f>
         <v>-0.22823328586101216</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="6"/>
-        <v>-0.22091148411440284</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,12 +682,12 @@
         <v>-0.19689124217106452</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
+        <f>((C17+D17)*$B$9)/2</f>
+        <v>-0.20524046226942902</v>
+      </c>
+      <c r="G17">
+        <f>IF((ABS(C17))&lt;=(ABS(D17)),(D17*$B$9),(C17*$B$9))</f>
         <v>-0.21358968236779352</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="6"/>
-        <v>-0.20524046226942902</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,12 +712,12 @@
         <v>-0.17872272833756273</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
+        <f>((C18+D18)*$B$9)/2</f>
+        <v>-0.18780698525431361</v>
+      </c>
+      <c r="G18">
+        <f>IF((ABS(C18))&lt;=(ABS(D18)),(D18*$B$9),(C18*$B$9))</f>
         <v>-0.19689124217106452</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="6"/>
-        <v>-0.18780698525431361</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -743,12 +742,12 @@
         <v>-0.15959527330119949</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f>((C19+D19)*$B$9)/2</f>
+        <v>-0.16915900081938109</v>
+      </c>
+      <c r="G19">
+        <f>IF((ABS(C19))&lt;=(ABS(D19)),(D19*$B$9),(C19*$B$9))</f>
         <v>-0.17872272833756273</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="6"/>
-        <v>-0.16915900081938109</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -773,12 +772,12 @@
         <v>-0.13992001066609783</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f>((C20+D20)*$B$9)/2</f>
+        <v>-0.14975764198364866</v>
+      </c>
+      <c r="G20">
+        <f>IF((ABS(C20))&lt;=(ABS(D20)),(D20*$B$9),(C20*$B$9))</f>
         <v>-0.15959527330119949</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="6"/>
-        <v>-0.14975764198364866</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,12 +802,12 @@
         <v>-0.11999500004166658</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
+        <f>((C21+D21)*$B$9)/2</f>
+        <v>-0.1299575053538822</v>
+      </c>
+      <c r="G21">
+        <f>IF((ABS(C21))&lt;=(ABS(D21)),(D21*$B$9),(C21*$B$9))</f>
         <v>-0.13992001066609783</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
-        <v>-0.1299575053538822</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -833,12 +832,12 @@
         <v>-0.10000000000000003</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f>((C22+D22)*$B$9)/2</f>
+        <v>-0.10999750002083331</v>
+      </c>
+      <c r="G22">
+        <f>IF((ABS(C22))&lt;=(ABS(D22)),(D22*$B$9),(C22*$B$9))</f>
         <v>-0.11999500004166658</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
-        <v>-0.10999750002083331</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -847,12 +846,12 @@
         <v>-1.8261066418300009</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:G23" si="7">SUM(F13:F22)</f>
+        <f>SUM(F13:F22)</f>
+        <v>-1.9031217571234076</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G13:G22)</f>
         <v>-1.9801368724168147</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="7"/>
-        <v>-1.9031217571234076</v>
       </c>
     </row>
   </sheetData>
